--- a/Discharge/RatingCurves/Stn4.xlsx
+++ b/Discharge/RatingCurves/Stn4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB6AE6-F8EE-47F0-88BD-43805011D26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AB82E-D25E-4DED-9D8A-A861A92EFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -60,40 +60,20 @@
     <t>missing baro data</t>
   </si>
   <si>
-    <t>used 12:00</t>
+    <t>?</t>
   </si>
   <si>
-    <r>
-      <t>y = 0.0003x</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 0.0054x + 0.0354</t>
-    </r>
+    <t>used 11:45</t>
+  </si>
+  <si>
+    <t>used 11:45 USFQ collected, assumptions had to be made</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +94,6 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,55 +268,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>7.8303989999999999</c:v>
+                  <c:v>8.0425319999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1750629999999997</c:v>
+                  <c:v>8.1750950000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6043640000000003</c:v>
+                  <c:v>8.6043969999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.24033</c:v>
+                  <c:v>0.1124037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2274100000000008</c:v>
+                  <c:v>9.2274460000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.01361</c:v>
+                  <c:v>0.1001365</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.857939999999999</c:v>
+                  <c:v>0.1085798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.688330000000001</c:v>
+                  <c:v>0.12688379999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.767519999999999</c:v>
+                  <c:v>0.11767569999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0595</c:v>
+                  <c:v>0.1005954</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7083750000000002</c:v>
+                  <c:v>8.7084090000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.570419999999999</c:v>
+                  <c:v>0.40570580000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.136690000000002</c:v>
+                  <c:v>0.30136800000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.698889999999999</c:v>
+                  <c:v>0.28699000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.046600000000002</c:v>
+                  <c:v>0.2004668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.866109999999999</c:v>
+                  <c:v>0.1986619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.56054</c:v>
+                  <c:v>0.23560629999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,15 +1469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D4A9D-5791-420D-B1BF-381DB74DB40B}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1559,13 +1531,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="4">
-        <v>7.8303989999999999</v>
+        <v>8.0425319999999995E-2</v>
       </c>
       <c r="E4">
         <v>1.6004999999999999E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1579,7 +1551,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D5" s="4">
-        <v>8.1750629999999997</v>
+        <v>8.1750950000000003E-2</v>
       </c>
       <c r="E5">
         <v>3.6879999999999999E-3</v>
@@ -1596,7 +1568,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D6" s="4">
-        <v>8.6043640000000003</v>
+        <v>8.6043969999999997E-2</v>
       </c>
       <c r="E6">
         <v>4.8890000000000001E-3</v>
@@ -1613,7 +1585,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D7" s="4">
-        <v>11.24033</v>
+        <v>0.1124037</v>
       </c>
       <c r="E7">
         <v>1.1620999999999999E-2</v>
@@ -1630,7 +1602,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="D8" s="4">
-        <v>9.2274100000000008</v>
+        <v>9.2274460000000003E-2</v>
       </c>
       <c r="E8">
         <v>7.1710000000000003E-3</v>
@@ -1647,7 +1619,7 @@
         <v>0.46875</v>
       </c>
       <c r="D9" s="4">
-        <v>10.01361</v>
+        <v>0.1001365</v>
       </c>
       <c r="E9">
         <v>7.1900000000000002E-3</v>
@@ -1664,7 +1636,7 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="4">
-        <v>10.857939999999999</v>
+        <v>0.1085798</v>
       </c>
       <c r="E10">
         <v>9.1592400000000008E-3</v>
@@ -1681,7 +1653,7 @@
         <v>0.625</v>
       </c>
       <c r="D11" s="4">
-        <v>12.688330000000001</v>
+        <v>0.12688379999999999</v>
       </c>
       <c r="E11">
         <v>2.734E-2</v>
@@ -1698,7 +1670,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="D12" s="4">
-        <v>11.767519999999999</v>
+        <v>0.11767569999999999</v>
       </c>
       <c r="E12">
         <v>1.6490000000000001E-2</v>
@@ -1715,7 +1687,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D13" s="4">
-        <v>10.0595</v>
+        <v>0.1005954</v>
       </c>
       <c r="E13">
         <v>1.031E-2</v>
@@ -1732,7 +1704,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D14" s="4">
-        <v>8.7083750000000002</v>
+        <v>8.7084090000000003E-2</v>
       </c>
       <c r="E14">
         <v>3.823E-3</v>
@@ -1749,7 +1721,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D15" s="4">
-        <v>40.570419999999999</v>
+        <v>0.40570580000000001</v>
       </c>
       <c r="E15">
         <v>0.24984000000000001</v>
@@ -1766,7 +1738,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D16" s="4">
-        <v>30.136690000000002</v>
+        <v>0.30136800000000002</v>
       </c>
       <c r="E16">
         <v>9.8879999999999996E-2</v>
@@ -1783,7 +1755,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="D17" s="4">
-        <v>28.698889999999999</v>
+        <v>0.28699000000000002</v>
       </c>
       <c r="E17">
         <v>9.1804999999999998E-2</v>
@@ -1800,7 +1772,7 @@
         <v>0.625</v>
       </c>
       <c r="D18" s="4">
-        <v>20.046600000000002</v>
+        <v>0.2004668</v>
       </c>
       <c r="E18">
         <v>1.6775000000000002E-2</v>
@@ -1817,7 +1789,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D19" s="4">
-        <v>19.866109999999999</v>
+        <v>0.1986619</v>
       </c>
       <c r="E19">
         <v>1.4605999999999999E-2</v>
@@ -1834,7 +1806,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D20" s="4">
-        <v>23.56054</v>
+        <v>0.23560629999999999</v>
       </c>
       <c r="E20">
         <v>8.0810000000000021E-2</v>
@@ -1843,9 +1815,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>9</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.1614592</v>
+      </c>
+      <c r="E21">
+        <v>1.7767500000000003E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Discharge/RatingCurves/Stn4.xlsx
+++ b/Discharge/RatingCurves/Stn4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\RatingCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597AB82E-D25E-4DED-9D8A-A861A92EFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{597AB82E-D25E-4DED-9D8A-A861A92EFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72026667-BCF5-804D-8A58-C930EE7E1BD4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
+    <workbookView xWindow="17160" yWindow="2940" windowWidth="24140" windowHeight="16900" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -68,12 +68,15 @@
   <si>
     <t>used 11:45 USFQ collected, assumptions had to be made</t>
   </si>
+  <si>
+    <t>used 12:30 USFQ collected, assumptions had to be made</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,12 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -124,6 +133,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,7 +192,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -256,7 +267,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-EC"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -454,7 +465,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1812082463"/>
@@ -516,7 +527,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1812079967"/>
@@ -564,7 +575,501 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7.5245140000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1750950000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6043969999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1124037</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2274460000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1001365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1085798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12688379999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11767569999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1005954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7084090000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40570580000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30136800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28699000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2004668</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1986619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23560629999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16173019999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15012320000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15586420000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1785224</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2104396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.6004999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8890000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1620999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1710000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1900000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1592400000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.734E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6490000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.031E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.823E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24984000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8879999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1804999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6775000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4605999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0810000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7767500000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2014999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8125000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8740000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1280000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A4E-B54A-AD31-741F75E1EA57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="574292719"/>
+        <c:axId val="898355631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="574292719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898355631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="898355631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574292719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -615,7 +1120,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1164,6 +2225,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>270566</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CFCCBD-DDF2-9556-6A87-5171E5776CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1469,23 +2566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D4A9D-5791-420D-B1BF-381DB74DB40B}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44357</v>
       </c>
@@ -1520,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44358</v>
       </c>
@@ -1540,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44361</v>
       </c>
@@ -1557,7 +2654,7 @@
         <v>3.6879999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44365</v>
       </c>
@@ -1574,7 +2671,7 @@
         <v>4.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44372</v>
       </c>
@@ -1591,7 +2688,7 @@
         <v>1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44375</v>
       </c>
@@ -1608,7 +2705,7 @@
         <v>7.1710000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44382</v>
       </c>
@@ -1625,7 +2722,7 @@
         <v>7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44386</v>
       </c>
@@ -1642,7 +2739,7 @@
         <v>9.1592400000000008E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44389</v>
       </c>
@@ -1659,7 +2756,7 @@
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44390</v>
       </c>
@@ -1676,7 +2773,7 @@
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44391</v>
       </c>
@@ -1693,7 +2790,7 @@
         <v>1.031E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44393</v>
       </c>
@@ -1710,7 +2807,7 @@
         <v>3.823E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44396</v>
       </c>
@@ -1727,7 +2824,7 @@
         <v>0.24984000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44397</v>
       </c>
@@ -1744,7 +2841,7 @@
         <v>9.8879999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44400</v>
       </c>
@@ -1761,7 +2858,7 @@
         <v>9.1804999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44403</v>
       </c>
@@ -1778,7 +2875,7 @@
         <v>1.6775000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44404</v>
       </c>
@@ -1795,7 +2892,7 @@
         <v>1.4605999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44368</v>
       </c>
@@ -1815,7 +2912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44489</v>
       </c>
@@ -1833,6 +2930,470 @@
       </c>
       <c r="F21" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26">
+        <v>3.5975E-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7.5245140000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.6004999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D28" s="6">
+        <v>8.1750950000000003E-2</v>
+      </c>
+      <c r="E28">
+        <v>3.6879999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8.6043969999999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>4.8890000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.1124037</v>
+      </c>
+      <c r="E30">
+        <v>1.1620999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D31" s="6">
+        <v>9.2274460000000003E-2</v>
+      </c>
+      <c r="E31">
+        <v>7.1710000000000003E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.1001365</v>
+      </c>
+      <c r="E32">
+        <v>7.1900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.1085798</v>
+      </c>
+      <c r="E33">
+        <v>9.1592400000000008E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.12688379999999999</v>
+      </c>
+      <c r="E34">
+        <v>2.734E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.11767569999999999</v>
+      </c>
+      <c r="E35">
+        <v>1.6490000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.1005954</v>
+      </c>
+      <c r="E36">
+        <v>1.031E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8.7084090000000003E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.823E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.40570580000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.24984000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.30136800000000002</v>
+      </c>
+      <c r="E39">
+        <v>9.8879999999999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.28699000000000002</v>
+      </c>
+      <c r="E40">
+        <v>9.1804999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.2004668</v>
+      </c>
+      <c r="E41">
+        <v>1.6775000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.1986619</v>
+      </c>
+      <c r="E42">
+        <v>1.4605999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.23560629999999999</v>
+      </c>
+      <c r="E43">
+        <v>8.0810000000000021E-2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.16173019999999999</v>
+      </c>
+      <c r="E45">
+        <v>1.7767500000000003E-3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.15012320000000001</v>
+      </c>
+      <c r="E47">
+        <v>1.2014999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.15586420000000001</v>
+      </c>
+      <c r="E48">
+        <v>2.8125000000000003E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.1785224</v>
+      </c>
+      <c r="E49">
+        <v>2.8740000000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.2104396</v>
+      </c>
+      <c r="E50">
+        <v>3.1280000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D52" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E52">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D53" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D54" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E54">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D55" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E55">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D56" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E56">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
